--- a/data/kbvreport_export/faktenblatttabellen_2021-01-10.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-01-10.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t xml:space="preserve">Testungen</t>
   </si>
@@ -117,10 +117,10 @@
     <t xml:space="preserve">147</t>
   </si>
   <si>
-    <t xml:space="preserve">172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,0 %</t>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">Unter-60-Jährige</t>
@@ -129,10 +129,10 @@
     <t xml:space="preserve">140</t>
   </si>
   <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,3 %</t>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,0 %</t>
   </si>
   <si>
     <t xml:space="preserve">Über-60-Jährige</t>
@@ -141,10 +141,10 @@
     <t xml:space="preserve">165</t>
   </si>
   <si>
-    <t xml:space="preserve">182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,3 %</t>
+    <t xml:space="preserve">183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,9 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
@@ -153,10 +153,10 @@
     <t xml:space="preserve">121</t>
   </si>
   <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,4 %</t>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon Über-80-Jährige</t>
@@ -165,10 +165,10 @@
     <t xml:space="preserve">306</t>
   </si>
   <si>
-    <t xml:space="preserve">331</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,2 %</t>
+    <t xml:space="preserve">333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">Regionen mit 7-TI bei Über-60-Jährigen:</t>
@@ -180,10 +180,10 @@
     <t xml:space="preserve">390</t>
   </si>
   <si>
-    <t xml:space="preserve">393</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,8 %</t>
+    <t xml:space="preserve">395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 50</t>
@@ -247,10 +247,10 @@
     <t xml:space="preserve">Ohne Symptomatik</t>
   </si>
   <si>
-    <t xml:space="preserve">13,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> %</t>
+    <t xml:space="preserve">13 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,8 %</t>
   </si>
   <si>
     <t xml:space="preserve"> PP</t>
@@ -259,7 +259,13 @@
     <t xml:space="preserve">Nicht stationär behandelt</t>
   </si>
   <si>
-    <t xml:space="preserve">90,7 %</t>
+    <t xml:space="preserve">89,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,8 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivmedizinisch behandelt (Schätzung)</t>
@@ -268,10 +274,10 @@
     <t xml:space="preserve">1,74 %</t>
   </si>
   <si>
-    <t xml:space="preserve">NA %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA PP</t>
+    <t xml:space="preserve">1,68 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,06 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Klinik- und Praxispersonal</t>
@@ -358,49 +364,49 @@
     <t xml:space="preserve">0 bis 59 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">90 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11,1%</t>
+    <t xml:space="preserve">95 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8,4%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">899 ( 4,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1069 ( 4,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18,9%</t>
+    <t xml:space="preserve">910 ( 4,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1091 ( 4,6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19,9%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">2579 (18,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3199 (17,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24,0%</t>
+    <t xml:space="preserve">2611 (18,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3266 (17,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25,1%</t>
   </si>
   <si>
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">3573 ( 2,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4369 ( 2,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22,3%</t>
+    <t xml:space="preserve">3621 ( 2,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4461 ( 2,9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23,2%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -448,28 +454,32 @@
     <t xml:space="preserve">Bundesdurchschnitt</t>
   </si>
   <si>
+    <t xml:space="preserve">18 Tage</t>
+  </si>
+  <si>
     <t xml:space="preserve">17 Tage</t>
   </si>
   <si>
-    <t xml:space="preserve">NA Tage</t>
-  </si>
-  <si>
     <t xml:space="preserve">kürzeste</t>
   </si>
   <si>
-    <t xml:space="preserve">5 Tage
+    <t xml:space="preserve">6 Tage
 Sachsen</t>
   </si>
   <si>
-    <t xml:space="preserve">NA Tage
-</t>
+    <t xml:space="preserve">6 Tage
+Thüringen</t>
   </si>
   <si>
     <t xml:space="preserve">längste</t>
   </si>
   <si>
-    <t xml:space="preserve">39 Tage
-Saarland, Mecklenburg-Vorpommern</t>
+    <t xml:space="preserve">40 Tage
+Bremen, Saarland, Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 Tage
+Bremen</t>
   </si>
   <si>
     <t xml:space="preserve">Bundesland</t>
@@ -533,9 +543,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nordrhein-Westfalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,93</t>
   </si>
   <si>
     <t xml:space="preserve">Rheinland-Pfalz</t>
@@ -1386,29 +1393,29 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -1416,47 +1423,47 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -1464,58 +1471,58 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1534,13 +1541,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1548,63 +1555,63 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -1612,58 +1619,58 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1689,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1696,39 +1703,45 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2"/>
+        <v>144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3"/>
+        <v>147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4"/>
+        <v>150</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,72 +1759,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D2" t="n">
-        <v>182</v>
-      </c>
-      <c r="E2"/>
+        <v>183</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>143</v>
-      </c>
-      <c r="E3"/>
+        <v>146</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C4" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D4" t="n">
-        <v>172</v>
-      </c>
-      <c r="E4"/>
+        <v>173</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C5" t="n">
         <v>196</v>
@@ -1819,29 +1838,33 @@
       <c r="D5" t="n">
         <v>246</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C6" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D6" t="n">
-        <v>294</v>
-      </c>
-      <c r="E6"/>
+        <v>296</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" t="n">
         <v>90</v>
@@ -1849,29 +1872,33 @@
       <c r="D7" t="n">
         <v>68</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="n">
         <v>157</v>
       </c>
-      <c r="C8" t="n">
-        <v>154</v>
-      </c>
       <c r="D8" t="n">
-        <v>171</v>
-      </c>
-      <c r="E8"/>
+        <v>173</v>
+      </c>
+      <c r="E8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C9" t="n">
         <v>162</v>
@@ -1879,14 +1906,16 @@
       <c r="D9" t="n">
         <v>182</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C10" t="n">
         <v>135</v>
@@ -1894,29 +1923,33 @@
       <c r="D10" t="n">
         <v>135</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C11" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" t="n">
         <v>115</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" t="n">
         <v>152</v>
@@ -1924,11 +1957,13 @@
       <c r="D12" t="n">
         <v>147</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1939,59 +1974,67 @@
       <c r="D13" t="n">
         <v>154</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>186</v>
       </c>
       <c r="D14" t="n">
-        <v>206</v>
-      </c>
-      <c r="E14"/>
+        <v>204</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C15" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D15" t="n">
-        <v>406</v>
-      </c>
-      <c r="E15"/>
+        <v>413</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C16" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D16" t="n">
-        <v>268</v>
-      </c>
-      <c r="E16"/>
+        <v>274</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C17" t="n">
         <v>99</v>
@@ -1999,22 +2042,26 @@
       <c r="D17" t="n">
         <v>100</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C18" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D18" t="n">
-        <v>329</v>
-      </c>
-      <c r="E18"/>
+        <v>333</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,354 +2079,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C2" t="n">
         <v>831165</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F2" t="n">
         <v>78755</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H2" t="n">
         <v>1502</v>
       </c>
       <c r="I2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" t="n">
         <v>664263</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F3" t="n">
         <v>20078</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H3" t="n">
         <v>1164</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C4" t="n">
         <v>885098</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F4" t="n">
         <v>81567</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" t="n">
         <v>650</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C5" t="n">
         <v>3081368</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" t="n">
         <v>51874</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H5" t="n">
         <v>418</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C6" t="n">
         <v>2050360</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F6" t="n">
         <v>16654</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H6" t="n">
         <v>378</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C7" t="n">
         <v>2840864</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F7" t="n">
         <v>67885</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H7" t="n">
         <v>344</v>
       </c>
       <c r="I7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C8" t="n">
         <v>2276491</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F8" t="n">
         <v>31189</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H8" t="n">
         <v>337</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C9" t="n">
         <v>1385522</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F9" t="n">
         <v>40936</v>
       </c>
       <c r="G9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H9" t="n">
         <v>324</v>
       </c>
       <c r="I9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C10" t="n">
         <v>671284</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F10" t="n">
         <v>13115</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H10" t="n">
         <v>286</v>
       </c>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C11" t="n">
         <v>1929410</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F11" t="n">
         <v>12461</v>
       </c>
       <c r="G11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H11" t="n">
         <v>220</v>
       </c>
       <c r="I11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/kbvreport_export/faktenblatttabellen_2021-01-10.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-01-10.xlsx
@@ -141,10 +141,10 @@
     <t xml:space="preserve">165</t>
   </si>
   <si>
-    <t xml:space="preserve">183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,9 %</t>
+    <t xml:space="preserve">184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
@@ -165,10 +165,10 @@
     <t xml:space="preserve">306</t>
   </si>
   <si>
-    <t xml:space="preserve">333</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,8 %</t>
+    <t xml:space="preserve">334</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">Regionen mit 7-TI bei Über-60-Jährigen:</t>
@@ -376,13 +376,13 @@
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">910 ( 4,7%)</t>
+    <t xml:space="preserve">912 ( 4,7%)</t>
   </si>
   <si>
     <t xml:space="preserve">1091 ( 4,6%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19,9%</t>
+    <t xml:space="preserve"> 19,6%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
@@ -400,13 +400,13 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">3621 ( 2,8%)</t>
+    <t xml:space="preserve">3623 ( 2,8%)</t>
   </si>
   <si>
     <t xml:space="preserve">4461 ( 2,9%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 23,2%</t>
+    <t xml:space="preserve"> 23,1%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -1785,7 +1785,7 @@
         <v>173</v>
       </c>
       <c r="D2" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E2" t="n">
         <v>17</v>
@@ -1819,7 +1819,7 @@
         <v>169</v>
       </c>
       <c r="D4" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -1887,10 +1887,10 @@
         <v>157</v>
       </c>
       <c r="D8" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1904,7 +1904,7 @@
         <v>162</v>
       </c>
       <c r="D9" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E9" t="n">
         <v>21</v>
@@ -1955,7 +1955,7 @@
         <v>152</v>
       </c>
       <c r="D12" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
@@ -1989,7 +1989,7 @@
         <v>186</v>
       </c>
       <c r="D14" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E14" t="n">
         <v>33</v>
